--- a/data/mySStestData_score_idents.xlsx
+++ b/data/mySStestData_score_idents.xlsx
@@ -7,21 +7,21 @@
     <workbookView xWindow="480" yWindow="30" windowWidth="19155" windowHeight="8520"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Results" sheetId="2" r:id="rId1"/>
     <sheet name="mySStestData_score_idents" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mySStestData_score_idents!$A$1:$D$1486</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="18">
   <si>
     <t>subject</t>
   </si>
@@ -62,21 +62,28 @@
     <t>Miss</t>
   </si>
   <si>
-    <t>Count of subject</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
-    <t>Samsung Data - Test Data Scored - Hit or Miss Count and Percentage</t>
+    <t>walk down</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Samsung Data - Test Data Scored - Hit or Miss Counts and Percentages</t>
+  </si>
+  <si>
+    <t>walk up</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -215,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +406,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -868,20 +881,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
@@ -891,7 +898,6 @@
     </xf>
     <xf numFmtId="9" fontId="16" fillId="33" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -907,29 +913,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="33" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="33" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="33" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -940,19 +977,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="33" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -999,72 +1026,12 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="63">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1073,16 +1040,6 @@
         </vertical>
         <horizontal style="thin">
           <color theme="4" tint="0.59996337778862885"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
         </horizontal>
       </border>
     </dxf>
@@ -1109,10 +1066,107 @@
     <dxf>
       <border>
         <vertical style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
+          <color theme="4" tint="0.59996337778862885"/>
         </vertical>
         <horizontal style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
+          <color theme="4" tint="0.59996337778862885"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
         </horizontal>
       </border>
     </dxf>
@@ -1129,10 +1183,212 @@
     <dxf>
       <border>
         <vertical style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
+          <color theme="4" tint="0.59996337778862885"/>
         </vertical>
         <horizontal style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
+          <color theme="4" tint="0.59996337778862885"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59996337778862885"/>
         </horizontal>
       </border>
     </dxf>
@@ -10122,7 +10378,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score" colHeaderCaption="Activity">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Score" colHeaderCaption="Activity">
   <location ref="B3:I18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -10132,8 +10388,8 @@
         <item x="1"/>
         <item x="0"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item n="walk down" x="4"/>
+        <item n="walk up" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10143,8 +10399,8 @@
         <item x="1"/>
         <item x="0"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item n="walk down" x="4"/>
+        <item n="walk up" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10230,16 +10486,16 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of subject" fld="0" subtotal="count" baseField="3" baseItem="0"/>
+    <dataField name="Observations" fld="0" subtotal="count" baseField="3" baseItem="0"/>
   </dataFields>
-  <formats count="14">
-    <format dxfId="19">
+  <formats count="21">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="60">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="0"/>
@@ -10249,7 +10505,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="59">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -10258,7 +10514,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="58">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="5">
@@ -10274,7 +10530,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -10283,7 +10539,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="0"/>
@@ -10293,34 +10549,75 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="55">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="54">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="47">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="45">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="44">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="43">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -10622,612 +10919,691 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Q19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="9" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="8" width="8.28515625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="17" width="8.85546875" customWidth="1"/>
+    <col min="11" max="16" width="8.28515625" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
+      <c r="B2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="42"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="42"/>
+    </row>
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
-    </row>
-    <row r="4" spans="2:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13" t="str">
-        <f>+C4</f>
+      <c r="J4" s="11"/>
+      <c r="K4" s="30" t="str">
+        <f t="shared" ref="K4:Q4" si="0">+C4</f>
         <v>laying</v>
       </c>
-      <c r="L4" s="13" t="str">
-        <f>+D4</f>
+      <c r="L4" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>sitting</v>
       </c>
-      <c r="M4" s="13" t="str">
-        <f>+E4</f>
+      <c r="M4" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>standing</v>
       </c>
-      <c r="N4" s="13" t="str">
-        <f>+F4</f>
+      <c r="N4" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>walk</v>
       </c>
-      <c r="O4" s="13" t="str">
-        <f>+G4</f>
-        <v>walkdown</v>
-      </c>
-      <c r="P4" s="13" t="str">
-        <f>+H4</f>
-        <v>walkup</v>
-      </c>
-      <c r="Q4" s="22" t="str">
-        <f>+I4</f>
+      <c r="O4" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>walk down</v>
+      </c>
+      <c r="P4" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>walk up</v>
+      </c>
+      <c r="Q4" s="19" t="str">
+        <f t="shared" si="0"/>
         <v>Grand Total</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="R4" s="42"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="1" t="str">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="53" t="str">
         <f>+B5</f>
         <v>Hit</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="25"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="42"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="35">
         <v>293</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="1">
         <v>293</v>
       </c>
-      <c r="J6" s="42" t="str">
-        <f t="shared" ref="J6:J18" si="0">+B6</f>
+      <c r="J6" s="27" t="str">
+        <f t="shared" ref="J6:J18" si="1">+B6</f>
         <v>laying</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f>+GETPIVOTDATA("subject",$B$3,"activity","laying","rf","laying","Score","Hit")/GETPIVOTDATA("subject",$B$3,"rf","laying")</f>
         <v>1</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="27">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="23">
         <f>+SUM(K6:P6)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
+      <c r="R6" s="42"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <v>226</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="4">
         <v>226</v>
       </c>
-      <c r="J7" s="43" t="str">
-        <f t="shared" si="0"/>
+      <c r="J7" s="28" t="str">
+        <f t="shared" si="1"/>
         <v>sitting</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
         <f>IF(D7&gt;0,+D7/+D$18)</f>
         <v>0.93388429752066116</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="27">
-        <f t="shared" ref="Q7:Q11" si="1">+SUM(K7:P7)</f>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="23">
+        <f t="shared" ref="Q7:Q11" si="2">+SUM(K7:P7)</f>
         <v>0.93388429752066116</v>
       </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5">
+      <c r="R7" s="42"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36">
         <v>267</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="4">
         <v>267</v>
       </c>
-      <c r="J8" s="43" t="str">
-        <f t="shared" si="0"/>
+      <c r="J8" s="28" t="str">
+        <f t="shared" si="1"/>
         <v>standing</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6">
         <f>IF(E8&gt;0,+E8/+E$18)</f>
         <v>0.87540983606557377</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="27">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="23">
+        <f t="shared" si="2"/>
+        <v>0.87540983606557377</v>
+      </c>
+      <c r="R8" s="42"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36">
+        <v>228</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="4">
+        <v>228</v>
+      </c>
+      <c r="J9" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0.87540983606557377</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
-        <v>228</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5">
-        <v>228</v>
-      </c>
-      <c r="J9" s="43" t="str">
-        <f t="shared" si="0"/>
         <v>walk</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6">
         <f>IF(F9&gt;0,+F9/+F$18)</f>
         <v>0.98701298701298701</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="27">
+      <c r="O9" s="6"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="23">
+        <f t="shared" si="2"/>
+        <v>0.98701298701298701</v>
+      </c>
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36">
+        <v>194</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="4">
+        <v>194</v>
+      </c>
+      <c r="J10" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0.98701298701298701</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5">
-        <v>194</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5">
-        <v>194</v>
-      </c>
-      <c r="J10" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v>walkdown</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7">
+        <v>walk down</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
         <f>IF(G10&gt;0,+G10/+G$18)</f>
         <v>0.99487179487179489</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="27">
+      <c r="P10" s="5"/>
+      <c r="Q10" s="23">
+        <f t="shared" si="2"/>
+        <v>0.99487179487179489</v>
+      </c>
+      <c r="R10" s="42"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36">
+        <v>214</v>
+      </c>
+      <c r="I11" s="4">
+        <v>214</v>
+      </c>
+      <c r="J11" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>0.99487179487179489</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
-        <v>214</v>
-      </c>
-      <c r="I11" s="5">
-        <v>214</v>
-      </c>
-      <c r="J11" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v>walkup</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7">
+        <v>walk up</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6">
         <f>IF(H11&gt;0,+H11/+H$18)</f>
         <v>0.97716894977168944</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="23">
+        <f t="shared" si="2"/>
+        <v>0.97716894977168944</v>
+      </c>
+      <c r="R11" s="42"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="52" t="str">
         <f t="shared" si="1"/>
-        <v>0.97716894977168944</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="8" t="str">
-        <f t="shared" si="0"/>
         <v>Miss</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="27"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5">
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="42"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36">
         <v>38</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5">
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="4">
         <v>38</v>
       </c>
-      <c r="J13" s="43" t="str">
-        <f t="shared" si="0"/>
+      <c r="J13" s="28" t="str">
+        <f t="shared" si="1"/>
         <v>sitting</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="7">
         <f>IF(E13&gt;0,+E13/+E$18)</f>
         <v>0.12459016393442623</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="27">
-        <f t="shared" ref="Q13:Q17" si="2">+SUM(K13:P13)</f>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="57">
+        <f t="shared" ref="Q13:Q17" si="3">+SUM(K13:P13)</f>
         <v>0.12459016393442623</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="R13" s="42"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36">
         <v>16</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5">
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="4">
         <v>16</v>
       </c>
-      <c r="J14" s="43" t="str">
-        <f t="shared" si="0"/>
+      <c r="J14" s="28" t="str">
+        <f t="shared" si="1"/>
         <v>standing</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="7">
         <f>IF(D14&gt;0,+D14/+D$18)</f>
         <v>6.6115702479338845E-2</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="27">
-        <f t="shared" si="2"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="57">
+        <f t="shared" si="3"/>
         <v>6.6115702479338845E-2</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
+      <c r="R14" s="42"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36">
         <v>1</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="43" t="str">
-        <f t="shared" si="0"/>
+      <c r="J15" s="28" t="str">
+        <f t="shared" si="1"/>
         <v>walk</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="9">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="7">
         <f>IF(H15&gt;0,+H15/+H$18)</f>
         <v>4.5662100456621002E-3</v>
       </c>
-      <c r="Q15" s="27">
-        <f t="shared" si="2"/>
+      <c r="Q15" s="57">
+        <f t="shared" si="3"/>
         <v>4.5662100456621002E-3</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5">
+      <c r="R15" s="42"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36">
         <v>2</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5">
-        <v>4</v>
-      </c>
-      <c r="I16" s="5">
-        <v>6</v>
-      </c>
-      <c r="J16" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v>walkdown</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36">
+        <v>4</v>
+      </c>
+      <c r="I16" s="4">
+        <v>6</v>
+      </c>
+      <c r="J16" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>walk down</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
       <c r="N16" s="7">
         <f>IF(F16&gt;0,+F16/+F$18)</f>
         <v>8.658008658008658E-3</v>
       </c>
-      <c r="O16" s="7"/>
+      <c r="O16" s="6"/>
       <c r="P16" s="7">
         <f>IF(H16&gt;0,+H16/+H$18)</f>
         <v>1.8264840182648401E-2</v>
       </c>
-      <c r="Q16" s="27">
-        <f t="shared" si="2"/>
+      <c r="Q16" s="57">
+        <f t="shared" si="3"/>
         <v>2.6922848840657057E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10">
+      <c r="R16" s="42"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37">
         <v>1</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="37">
         <v>1</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10">
+      <c r="H17" s="37"/>
+      <c r="I17" s="8">
         <v>2</v>
       </c>
-      <c r="J17" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v>walkup</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12">
+      <c r="J17" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>walk up</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10">
         <f>IF(F17&gt;0,+F17/+F$18)</f>
         <v>4.329004329004329E-3</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="10">
         <f>IF(G17&gt;0,+G17/+G$18)</f>
         <v>5.1282051282051282E-3</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="31">
-        <f t="shared" si="2"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="58">
+        <f t="shared" si="3"/>
         <v>9.4572094572094572E-3</v>
       </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="32" t="s">
+      <c r="R17" s="42"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="38">
         <v>293</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="38">
         <v>242</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="38">
         <v>305</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="38">
         <v>231</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="38">
         <v>195</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="38">
         <v>219</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="51">
         <v>1485</v>
       </c>
-      <c r="J18" s="37" t="str">
-        <f t="shared" si="0"/>
+      <c r="J18" s="26" t="str">
+        <f t="shared" si="1"/>
         <v>Grand Total</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="12">
         <f>SUM(K13:K17)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="31">
         <f>SUM(L13:L17)</f>
         <v>6.6115702479338845E-2</v>
       </c>
-      <c r="M18" s="14">
-        <f t="shared" ref="M18:Q18" si="3">SUM(M13:M17)</f>
+      <c r="M18" s="31">
+        <f t="shared" ref="M18:Q18" si="4">SUM(M13:M17)</f>
         <v>0.12459016393442623</v>
       </c>
-      <c r="N18" s="14">
-        <f t="shared" si="3"/>
+      <c r="N18" s="31">
+        <f t="shared" si="4"/>
         <v>1.2987012987012988E-2</v>
       </c>
-      <c r="O18" s="14">
-        <f t="shared" si="3"/>
+      <c r="O18" s="31">
+        <f t="shared" si="4"/>
         <v>5.1282051282051282E-3</v>
       </c>
-      <c r="P18" s="14">
-        <f t="shared" si="3"/>
+      <c r="P18" s="31">
+        <f t="shared" si="4"/>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="Q18" s="33">
-        <f t="shared" si="3"/>
+      <c r="Q18" s="59">
+        <f t="shared" si="4"/>
         <v>0.23165213475729368</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="36"/>
+      <c r="R18" s="42"/>
+    </row>
+    <row r="19" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="42"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11237,7 +11613,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data/mySStestData_score_idents.xlsx
+++ b/data/mySStestData_score_idents.xlsx
@@ -962,6 +962,9 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="16" fillId="33" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="33" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -977,9 +980,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="33" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1026,261 +1026,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59996337778862885"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -10489,13 +10235,13 @@
     <dataField name="Observations" fld="0" subtotal="count" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="21">
-    <format dxfId="62">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="18">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="0"/>
@@ -10505,7 +10251,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="17">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -10514,7 +10260,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="5">
@@ -10530,7 +10276,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -10539,7 +10285,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="0"/>
@@ -10549,56 +10295,56 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="13">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="10">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="9">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="5">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="4">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -10607,7 +10353,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -10616,7 +10362,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="0">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -10922,14 +10668,15 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="B2" sqref="B2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="8" width="8.28515625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="39" customWidth="1"/>
+    <col min="4" max="8" width="8.28515625" style="39" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" hidden="1" customWidth="1"/>
     <col min="11" max="16" width="8.28515625" customWidth="1"/>
@@ -10959,24 +10706,24 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="59"/>
       <c r="R2" s="42"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -11072,16 +10819,16 @@
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
       <c r="I5" s="21"/>
-      <c r="J5" s="53" t="str">
+      <c r="J5" s="56" t="str">
         <f>+B5</f>
         <v>Hit</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="42"/>
     </row>
@@ -11307,16 +11054,16 @@
       <c r="G12" s="49"/>
       <c r="H12" s="49"/>
       <c r="I12" s="50"/>
-      <c r="J12" s="52" t="str">
+      <c r="J12" s="55" t="str">
         <f t="shared" si="1"/>
         <v>Miss</v>
       </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="42"/>
     </row>
@@ -11349,7 +11096,7 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="57">
+      <c r="Q13" s="52">
         <f t="shared" ref="Q13:Q17" si="3">+SUM(K13:P13)</f>
         <v>0.12459016393442623</v>
       </c>
@@ -11384,7 +11131,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="57">
+      <c r="Q14" s="52">
         <f t="shared" si="3"/>
         <v>6.6115702479338845E-2</v>
       </c>
@@ -11419,7 +11166,7 @@
         <f>IF(H15&gt;0,+H15/+H$18)</f>
         <v>4.5662100456621002E-3</v>
       </c>
-      <c r="Q15" s="57">
+      <c r="Q15" s="52">
         <f t="shared" si="3"/>
         <v>4.5662100456621002E-3</v>
       </c>
@@ -11459,7 +11206,7 @@
         <f>IF(H16&gt;0,+H16/+H$18)</f>
         <v>1.8264840182648401E-2</v>
       </c>
-      <c r="Q16" s="57">
+      <c r="Q16" s="52">
         <f t="shared" si="3"/>
         <v>2.6922848840657057E-2</v>
       </c>
@@ -11499,7 +11246,7 @@
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="P17" s="9"/>
-      <c r="Q17" s="58">
+      <c r="Q17" s="53">
         <f t="shared" si="3"/>
         <v>9.4572094572094572E-3</v>
       </c>
@@ -11559,7 +11306,7 @@
         <f t="shared" si="4"/>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="Q18" s="59">
+      <c r="Q18" s="54">
         <f t="shared" si="4"/>
         <v>0.23165213475729368</v>
       </c>
